--- a/AoC_2024/Day_17.xlsx
+++ b/AoC_2024/Day_17.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28514"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AOC_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE90D17-B1FF-4637-BFB6-1019DA7B0065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A94350C-5A02-446D-9221-6F154B46E2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="1155" windowWidth="28725" windowHeight="17010" xr2:uid="{72A44237-496D-42CE-B98D-FBD96F6BF5D1}"/>
+    <workbookView xWindow="6840" yWindow="465" windowWidth="27060" windowHeight="16965" xr2:uid="{72A44237-496D-42CE-B98D-FBD96F6BF5D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1 (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sample" sheetId="5" r:id="rId2"/>
+    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="Sample2" sheetId="7" r:id="rId4"/>
+    <sheet name="Hoja1 (3)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>Register A: 47006051</t>
   </si>
@@ -3428,12 +3430,7113 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Register A: 729</t>
+  </si>
+  <si>
+    <t>Program: 0,1,5,4,3,0</t>
+  </si>
+  <si>
+    <t>Credits: Excel Wizard</t>
+  </si>
+  <si>
+    <r>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TEXTSPLIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(B6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>REDUCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VSTACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(--B2:B4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAMBDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SWITCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CHOOSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BITXOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BITXOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TAKE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Register A: 2024</t>
+  </si>
+  <si>
+    <t>Program: 0,3,5,4,3,0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, B6,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TEXTSPLIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAMBDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>REDUCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VSTACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAMBDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SWITCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CHOOSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BITXOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BITXOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TAKE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>REDUCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAMBDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC4432B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TOCOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF033D8B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RIGHT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0969DA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)))))</t>
+    </r>
+  </si>
+  <si>
+    <t>Credist: Excel Wizard</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3502,8 +10605,55 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC4432B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0969DA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF033D8B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3522,6 +10672,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3535,7 +10691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3566,6 +10722,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4025,6 +11196,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="116" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{270CD28B-52F8-4805-8409-69B0B7A4B3D7}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-001" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9720755B-F66E-481B-B597-4E24A4FC7888}">
   <dimension ref="A1:O32"/>
@@ -4435,39 +11633,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4D434E-3529-4734-BF0E-E42B64280CB5}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCB89FA-C91C-4FDA-B54A-9A72606529CB}">
+  <dimension ref="A2:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:33">
+      <c r="A2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B6">_xlfn.TEXTAFTER(A2:A6,": ")</f>
+        <v>729</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:C6">_xlfn.SEQUENCE(5)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlfn.VSTACK(--B2:B4,1,"")
+)</f>
+        <v>729</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2:E6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.VSTACK(--B2:B4,1,""),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>364</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:F6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(E2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>364</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2:G6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(F2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>364</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:H6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(G2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>182</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2:I6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(H2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>182</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2:J6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(I2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>182</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2:K6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(J2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>91</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2:L6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(K2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>91</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2:M6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(L2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>91</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2:N6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(M2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>45</v>
+      </c>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2:O6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(N2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>45</v>
+      </c>
+      <c r="P2" cm="1">
+        <f t="array" ref="P2:P6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(O2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>45</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2:Q6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(P2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>22</v>
+      </c>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2:R6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(Q2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>22</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" ref="S2:S6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(R2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>22</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2:T6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(S2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>11</v>
+      </c>
+      <c r="U2" cm="1">
+        <f t="array" ref="U2:U6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(T2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>11</v>
+      </c>
+      <c r="V2" cm="1">
+        <f t="array" ref="V2:V6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(U2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>11</v>
+      </c>
+      <c r="W2" cm="1">
+        <f t="array" ref="W2:W6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(V2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>5</v>
+      </c>
+      <c r="X2" cm="1">
+        <f t="array" ref="X2:X6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(W2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>5</v>
+      </c>
+      <c r="Y2" cm="1">
+        <f t="array" ref="Y2:Y6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(X2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>5</v>
+      </c>
+      <c r="Z2" cm="1">
+        <f t="array" ref="Z2:Z6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(Y2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>2</v>
+      </c>
+      <c r="AA2" cm="1">
+        <f t="array" ref="AA2:AA6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(Z2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB2" cm="1">
+        <f t="array" ref="AB2:AB6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(AA2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>2</v>
+      </c>
+      <c r="AC2" cm="1">
+        <f t="array" ref="AC2:AC6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(AB2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>1</v>
+      </c>
+      <c r="AD2" cm="1">
+        <f t="array" ref="AD2:AD6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(AC2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" cm="1">
+        <f t="array" ref="AE2:AE6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(AD2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>1</v>
+      </c>
+      <c r="AF2" cm="1">
+        <f t="array" ref="AF2:AF6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(AE2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="AG2" cm="1">
+        <f t="array" ref="AG2:AG6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT($B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.ANCHORARRAY(AF2),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="str">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="15"/>
+      <c r="B5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0,1,5,4,3,0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>,4</v>
+      </c>
+      <c r="G6" t="str">
+        <v>,4</v>
+      </c>
+      <c r="H6" t="str">
+        <v>,4</v>
+      </c>
+      <c r="I6" t="str">
+        <v>,4,6</v>
+      </c>
+      <c r="J6" t="str">
+        <v>,4,6</v>
+      </c>
+      <c r="K6" t="str">
+        <v>,4,6</v>
+      </c>
+      <c r="L6" t="str">
+        <v>,4,6,3</v>
+      </c>
+      <c r="M6" t="str">
+        <v>,4,6,3</v>
+      </c>
+      <c r="N6" t="str">
+        <v>,4,6,3</v>
+      </c>
+      <c r="O6" t="str">
+        <v>,4,6,3,5</v>
+      </c>
+      <c r="P6" t="str">
+        <v>,4,6,3,5</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>,4,6,3,5</v>
+      </c>
+      <c r="R6" t="str">
+        <v>,4,6,3,5,6</v>
+      </c>
+      <c r="S6" t="str">
+        <v>,4,6,3,5,6</v>
+      </c>
+      <c r="T6" t="str">
+        <v>,4,6,3,5,6</v>
+      </c>
+      <c r="U6" t="str">
+        <v>,4,6,3,5,6,3</v>
+      </c>
+      <c r="V6" t="str">
+        <v>,4,6,3,5,6,3</v>
+      </c>
+      <c r="W6" t="str">
+        <v>,4,6,3,5,6,3</v>
+      </c>
+      <c r="X6" t="str">
+        <v>,4,6,3,5,6,3,5</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>,4,6,3,5,6,3,5</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>,4,6,3,5,6,3,5</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>,4,6,3,5,6,3,5,2</v>
+      </c>
+      <c r="AB6" t="str">
+        <v>,4,6,3,5,6,3,5,2</v>
+      </c>
+      <c r="AC6" t="str">
+        <v>,4,6,3,5,6,3,5,2</v>
+      </c>
+      <c r="AD6" t="str">
+        <v>,4,6,3,5,6,3,5,2,1</v>
+      </c>
+      <c r="AE6" t="str">
+        <v>,4,6,3,5,6,3,5,2,1</v>
+      </c>
+      <c r="AF6" t="str">
+        <v>,4,6,3,5,6,3,5,2,1</v>
+      </c>
+      <c r="AG6" s="10" t="str">
+        <v>,4,6,3,5,6,3,5,2,1,0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="B7" s="17" t="str" cm="1">
+        <f t="array" ref="B7:G7">_xlfn.LET(_xlpm.in,_xlfn.TEXTSPLIT(B6,","),_xlpm.in)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17" t="str">
+        <v>3</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="D9" cm="1">
+        <f t="array" ref="D9:D13">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.VSTACK(--B2:B4,1,""),_xlfn.SEQUENCE(100),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str" cm="1">
+        <f t="array" ref="E9">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlpm.rs,_xlfn.REDUCE(_xlfn.VSTACK(--B2:B4,1,""),_xlfn.SEQUENCE(100),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))),MID(_xlfn.TAKE(_xlpm.rs,-1),2,99))</f>
+        <v>4,6,3,5,6,3,5,2,1,0</v>
+      </c>
+      <c r="H9" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.LET(_xlpm.z,B6,_xlpm.in,--_xlfn.TEXTSPLIT(_xlpm.z,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlpm.L,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.r,_xlfn.LAMBDA(_xlpm.r,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.n,_xlpm.out,
+_xlfn.LET(_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlfn.SINGLE(_xlpm.n)&gt;COUNT(_xlpm.in),_xlpm.out,_xlfn.LET(
+_xlpm.mo,MOD(MOD(_xlpm.co,8^8),8),
+CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+_xlpm.r(_xlpm.r,INT(_xlpm.a/2^_xlpm.co),_xlpm.b,_xlpm.c,_xlpm.n+2,_xlpm.out),
+_xlpm.r(_xlpm.r,_xlpm.a,_xlfn.BITXOR(_xlpm.b,_xlpm.o),_xlpm.c,_xlpm.n+2,_xlpm.out),
+_xlpm.r(_xlpm.r,_xlpm.a,_xlpm.mo,_xlpm.c,_xlpm.n+2,_xlpm.out),
+_xlpm.r(_xlpm.r,_xlpm.a,_xlpm.b,_xlpm.c,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.out),
+_xlpm.r(_xlpm.r,_xlpm.a,_xlfn.BITXOR(_xlpm.b,_xlpm.c),_xlpm.c,_xlpm.n+2,_xlpm.out),
+_xlpm.r(_xlpm.r,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.n+2,_xlpm.out&amp;","&amp;_xlpm.mo),
+_xlpm.r(_xlpm.r,_xlpm.a,INT(_xlpm.a/2^_xlpm.co),_xlpm.c,_xlpm.n+2,_xlpm.out),
+_xlpm.r(_xlpm.r,_xlpm.a,_xlpm.b,INT(_xlpm.a/2^_xlpm.co),_xlpm.n+2,_xlpm.out)))))),_xlpm.rs,_xlpm.r(_xlpm.r,_xlpm.x,0,0,1,""),MID(_xlfn.TAKE(_xlpm.rs,5),2,99))),_xlpm.L(D2))</f>
+        <v>4,6,3,5,6,3,5,2,1,0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="D13" t="str">
+        <v>,4,6,3,5,6,3,5,2,1,0</v>
       </c>
     </row>
   </sheetData>
@@ -4476,39 +12661,1274 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F144301F-8FB4-4E14-B581-44FEBA9C3BE7}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4D434E-3529-4734-BF0E-E42B64280CB5}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="E1" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B6">_xlfn.TEXTAFTER(A2:A6,": ")</f>
+        <v>47006051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="str" cm="1">
+        <f t="array" ref="E4">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlpm.rs,_xlfn.REDUCE(_xlfn.VSTACK(--B2:B4,1,""),_xlfn.SEQUENCE(100),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))),MID(_xlfn.TAKE(_xlpm.rs,-1),2,99))</f>
+        <v>6,2,7,2,3,1,6,0,5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2,4,1,3,7,5,1,5,0,3,4,3,5,5,3,0</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E22890-DE41-464F-8CED-C91AFBB387F2}">
+  <dimension ref="A2:J72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B6">_xlfn.TEXTAFTER(A2:A6,": ")</f>
+        <v>2024</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:C6">_xlfn.SEQUENCE(5)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlfn.VSTACK(--B2:B4,1,"")
+)</f>
+        <v>2024</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2:E6">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.VSTACK(--B2:B4,1,""),_xlfn.SEQUENCE(1),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0,3,5,4,3,0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="17" cm="1">
+        <f t="array" ref="B7:G7">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.in)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="E8">
+        <v>117440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" cm="1">
+        <f t="array" ref="D9:D13">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlfn.REDUCE(_xlfn.VSTACK(--B2:B4,1,""),_xlfn.SEQUENCE(100),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str" cm="1">
+        <f t="array" ref="E9">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlpm.rs,_xlfn.REDUCE(_xlfn.VSTACK(117440,0,0,1,""),_xlfn.SEQUENCE(100),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))),MID(_xlfn.TAKE(_xlpm.rs,-1),2,99))</f>
+        <v>0,3,5,4,3,0</v>
+      </c>
+      <c r="F9" t="str" cm="1">
+        <f t="array" ref="F9">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlpm.L,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+_xlpm.rs,_xlfn.REDUCE(_xlfn.VSTACK(_xlpm.x,0,0,1,""),_xlfn.SEQUENCE(100),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))),MID(_xlfn.TAKE(_xlpm.rs,-1),2,99))),_xlpm.L(E8))</f>
+        <v>0,3,5,4,3,0</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9:G72">_xlfn.SEQUENCE(8^2,,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" t="str" cm="1">
+        <f t="array" ref="H9:H72">_xlfn.LET(_xlpm.in,--_xlfn.TEXTSPLIT(B6,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlpm.L,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+_xlpm.rs,_xlfn.REDUCE(_xlfn.VSTACK(_xlpm.x,0,0,1,""),_xlfn.SEQUENCE(100),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))),MID(_xlfn.TAKE(_xlpm.rs,-1),2,99))),_xlfn.MAP(_xlfn.ANCHORARRAY(G9),_xlpm.L))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" cm="1">
+        <f t="array" ref="J9:J16">_xlfn.LET(_xlpm.z,B6,_xlpm.in,--_xlfn.TEXTSPLIT(_xlpm.z,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlpm.L,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+_xlpm.rs,_xlfn.REDUCE(_xlfn.VSTACK(_xlpm.x,0,0,1,""),_xlfn.SEQUENCE(100),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(_xlpm.co,8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))),MID(_xlfn.TAKE(_xlpm.rs,-1),2,99))),
+_xlfn.REDUCE(0,_xlfn.SEQUENCE(COUNT(_xlpm.in)),_xlfn.LAMBDA(_xlpm.n,_xlpm.i,_xlfn.LET(_xlpm.s,_xlfn.SEQUENCE(,8,0)+_xlpm.n*8,_xlfn.TOCOL(_xlfn.IFS(_xlfn.MAP(_xlpm.s,_xlpm.L)=RIGHT(_xlpm.z,_xlpm.i*2-1),_xlpm.s),3)))))</f>
+        <v>117440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>117441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="str">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>117442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="str">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>117443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" t="str">
+        <v>,5,7,3,0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>117444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="str">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>117445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15" t="str">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>117446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="str">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>117447</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17" t="str">
+        <v>1,0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18" t="str">
+        <v>1,0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" t="str">
+        <v>1,0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20" t="str">
+        <v>1,0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8">
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21" t="str">
+        <v>1,0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22" t="str">
+        <v>1,0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8">
+      <c r="G23">
+        <v>14</v>
+      </c>
+      <c r="H23" t="str">
+        <v>1,0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24" t="str">
+        <v>1,0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8">
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25" t="str">
+        <v>2,0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8">
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26" t="str">
+        <v>2,0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8">
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27" t="str">
+        <v>2,0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8">
+      <c r="G28">
+        <v>19</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2,0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8">
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29" t="str">
+        <v>2,0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8">
+      <c r="G30">
+        <v>21</v>
+      </c>
+      <c r="H30" t="str">
+        <v>2,0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8">
+      <c r="G31">
+        <v>22</v>
+      </c>
+      <c r="H31" t="str">
+        <v>2,0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
+      <c r="G32">
+        <v>23</v>
+      </c>
+      <c r="H32" t="str">
+        <v>2,0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33" t="str">
+        <v>3,0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8">
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34" t="str">
+        <v>3,0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35">
+        <v>26</v>
+      </c>
+      <c r="H35" t="str">
+        <v>3,0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36">
+        <v>27</v>
+      </c>
+      <c r="H36" t="str">
+        <v>3,0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37">
+        <v>28</v>
+      </c>
+      <c r="H37" t="str">
+        <v>3,0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8">
+      <c r="G38">
+        <v>29</v>
+      </c>
+      <c r="H38" t="str">
+        <v>3,0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8">
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39" t="str">
+        <v>3,0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8">
+      <c r="G40">
+        <v>31</v>
+      </c>
+      <c r="H40" t="str">
+        <v>3,0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8">
+      <c r="G41">
+        <v>32</v>
+      </c>
+      <c r="H41" t="str">
+        <v>4,0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8">
+      <c r="G42">
+        <v>33</v>
+      </c>
+      <c r="H42" t="str">
+        <v>4,0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8">
+      <c r="G43">
+        <v>34</v>
+      </c>
+      <c r="H43" t="str">
+        <v>4,0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8">
+      <c r="G44">
+        <v>35</v>
+      </c>
+      <c r="H44" t="str">
+        <v>4,0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8">
+      <c r="G45">
+        <v>36</v>
+      </c>
+      <c r="H45" t="str">
+        <v>4,0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8">
+      <c r="G46">
+        <v>37</v>
+      </c>
+      <c r="H46" t="str">
+        <v>4,0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8">
+      <c r="G47">
+        <v>38</v>
+      </c>
+      <c r="H47" t="str">
+        <v>4,0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8">
+      <c r="G48">
+        <v>39</v>
+      </c>
+      <c r="H48" t="str">
+        <v>4,0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8">
+      <c r="G49">
+        <v>40</v>
+      </c>
+      <c r="H49" t="str">
+        <v>5,0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8">
+      <c r="G50">
+        <v>41</v>
+      </c>
+      <c r="H50" t="str">
+        <v>5,0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8">
+      <c r="G51">
+        <v>42</v>
+      </c>
+      <c r="H51" t="str">
+        <v>5,0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8">
+      <c r="G52">
+        <v>43</v>
+      </c>
+      <c r="H52" t="str">
+        <v>5,0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8">
+      <c r="G53">
+        <v>44</v>
+      </c>
+      <c r="H53" t="str">
+        <v>5,0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8">
+      <c r="G54">
+        <v>45</v>
+      </c>
+      <c r="H54" t="str">
+        <v>5,0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8">
+      <c r="G55">
+        <v>46</v>
+      </c>
+      <c r="H55" t="str">
+        <v>5,0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8">
+      <c r="G56">
+        <v>47</v>
+      </c>
+      <c r="H56" t="str">
+        <v>5,0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8">
+      <c r="G57">
+        <v>48</v>
+      </c>
+      <c r="H57" t="str">
+        <v>6,0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8">
+      <c r="G58">
+        <v>49</v>
+      </c>
+      <c r="H58" t="str">
+        <v>6,0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8">
+      <c r="G59">
+        <v>50</v>
+      </c>
+      <c r="H59" t="str">
+        <v>6,0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8">
+      <c r="G60">
+        <v>51</v>
+      </c>
+      <c r="H60" t="str">
+        <v>6,0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
+      <c r="G61">
+        <v>52</v>
+      </c>
+      <c r="H61" t="str">
+        <v>6,0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8">
+      <c r="G62">
+        <v>53</v>
+      </c>
+      <c r="H62" t="str">
+        <v>6,0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8">
+      <c r="G63">
+        <v>54</v>
+      </c>
+      <c r="H63" t="str">
+        <v>6,0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8">
+      <c r="G64">
+        <v>55</v>
+      </c>
+      <c r="H64" t="str">
+        <v>6,0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="G65">
+        <v>56</v>
+      </c>
+      <c r="H65" t="str">
+        <v>7,0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66">
+        <v>57</v>
+      </c>
+      <c r="H66" t="str">
+        <v>7,0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67">
+        <v>58</v>
+      </c>
+      <c r="H67" t="str">
+        <v>7,0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68">
+        <v>59</v>
+      </c>
+      <c r="H68" t="str">
+        <v>7,0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69">
+        <v>60</v>
+      </c>
+      <c r="H69" t="str">
+        <v>7,0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70">
+        <v>61</v>
+      </c>
+      <c r="H70" t="str">
+        <v>7,0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="G71">
+        <v>62</v>
+      </c>
+      <c r="H71" t="str">
+        <v>7,0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="G72">
+        <v>63</v>
+      </c>
+      <c r="H72" t="str">
+        <v>7,0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F144301F-8FB4-4E14-B581-44FEBA9C3BE7}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="F1" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B6">_xlfn.TEXTAFTER(A2:A6,": ")</f>
+        <v>47006051</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20" cm="1">
+        <f t="array" ref="D3:D4">_xlfn.LET(_xlpm.z,B6,_xlpm.in,--_xlfn.TEXTSPLIT(_xlpm.z,","),_xlpm.h,_xlfn.SEQUENCE(5),
+_xlpm.L,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+_xlpm.rs,_xlfn.REDUCE(_xlfn.VSTACK(_xlpm.x,0,0,1,""),_xlfn.SEQUENCE(200),_xlfn.LAMBDA(_xlpm.an,_xlpm._,
+_xlfn.LET(_xlpm.a,INDEX(_xlpm.an,1),_xlpm.b,INDEX(_xlpm.an,2),_xlpm.c,INDEX(_xlpm.an,3),_xlpm.n,INDEX(_xlpm.an,4),_xlpm.o,INDEX(_xlpm.in,_xlpm.n+1),_xlpm.co,_xlfn.SWITCH(_xlpm.o,4,_xlpm.a,5,_xlpm.b,6,_xlpm.c,7,NA(),_xlpm.o),
+IF(_xlpm.n&gt;COUNT(_xlpm.in),_xlpm.an,_xlfn.LET(
+_xlpm.mo,MOD(MOD(_xlpm.co,8^8),8),
+_xlpm.i,CHOOSE(INDEX(_xlpm.in,_xlpm.n)+1,
+IF(_xlpm.h=1,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.o),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=4,IF(_xlpm.a,_xlpm.o+1,_xlpm.n+2),_xlpm.an),
+IF(_xlpm.h=2,_xlfn.BITXOR(_xlpm.b,_xlpm.c),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=5,INDEX(_xlpm.an,5)&amp;","&amp;_xlpm.mo,IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=2,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an)),
+IF(_xlpm.h=3,INT(_xlpm.a/2^_xlpm.co),IF(_xlpm.h=4,_xlpm.n+2,_xlpm.an))
+),_xlpm.i))))),MID(_xlfn.TAKE(_xlpm.rs,-1),2,99))),
+_xlfn.REDUCE(0,_xlfn.SEQUENCE(COUNT(_xlpm.in)),_xlfn.LAMBDA(_xlpm.n,_xlpm.i,_xlfn.LET(_xlpm.s,_xlfn.SEQUENCE(,8,0)+_xlpm.n*8,_xlfn.TOCOL(_xlfn.IFS(_xlfn.MAP(_xlpm.s,_xlpm.L)=RIGHT(_xlpm.z,_xlpm.i*2-1),_xlpm.s),3)))))</f>
+        <v>236548287712877</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>236548287712959</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2,4,1,3,7,5,1,5,0,3,4,3,5,5,3,0</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="F7" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="F8" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="F9" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="F10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="F12" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="F13" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="F14" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="F15" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="F16" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
